--- a/第三阶段第二批问题.xlsx
+++ b/第三阶段第二批问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8100"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <t>在有订单的情况下,指数会铺满屏幕</t>
   </si>
   <si>
-    <t>用户余额更新点击bug:1.图标未转动,2.无更新成功||失败提示框</t>
+    <t>修复</t>
   </si>
   <si>
-    <t>修复</t>
+    <t>用户余额更新点击bug:1.图标未转动,2.无更新成功||失败提示框</t>
   </si>
   <si>
     <t>在订单倒计时阶段切换产品,在目标产品图表,倒计时仍然存在,并显示为0</t>
@@ -52,11 +52,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +75,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,6 +159,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -113,14 +183,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,21 +198,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -150,69 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +227,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,19 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,145 +359,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,60 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,8 +439,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,153 +494,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,12 +997,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="119.25" customWidth="1"/>
+    <col min="1" max="1" width="126.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
@@ -1017,47 +1010,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
